--- a/sims.xlsx
+++ b/sims.xlsx
@@ -14,24 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>MAtric Number</t>
-  </si>
-  <si>
-    <t>bayo</t>
-  </si>
-  <si>
-    <t>comp science</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Company's Shares</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Percentage Leverage</t>
+  </si>
+  <si>
+    <t>Enron</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Gk Jones</t>
+  </si>
+  <si>
+    <t>Mica</t>
+  </si>
+  <si>
+    <t>Dune</t>
   </si>
 </sst>
 </file>
@@ -389,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,14 +425,82 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1000000</v>
+      </c>
+      <c r="D2">
+        <v>1987</v>
+      </c>
+      <c r="E2">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>2345678</v>
+      <c r="C3">
+        <v>1500000</v>
+      </c>
+      <c r="D3">
+        <v>1936</v>
+      </c>
+      <c r="E3">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>30000000</v>
+      </c>
+      <c r="D4">
+        <v>2001</v>
+      </c>
+      <c r="E4">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>250000</v>
+      </c>
+      <c r="D5">
+        <v>1996</v>
+      </c>
+      <c r="E5">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>800000</v>
+      </c>
+      <c r="D6">
+        <v>2008</v>
+      </c>
+      <c r="E6">
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>
